--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Share\Price list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1154" sqref="F1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23982,7 +23982,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24836,7 +24836,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25730,7 +25730,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26601,7 +26601,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27503,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28366,7 +28366,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29256,7 +29256,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30142,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31021,7 +31021,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31894,7 +31894,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33683,7 +33683,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34543,7 +34543,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35437,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36274,8 +36274,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.05" right="0.05" top="0.25" bottom="0.05" header="0.25" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="3.937007874015748E-2" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.31496062992125984"/>
+  <pageSetup paperSize="14" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage.&amp;P</oddFooter>
   </headerFooter>

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1154" sqref="F1154"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1389" sqref="A1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23982,7 +23982,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24836,7 +24836,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25730,7 +25730,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26601,7 +26601,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27503,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28366,7 +28366,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29256,7 +29256,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30142,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31021,7 +31021,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31894,7 +31894,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33683,7 +33683,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34543,7 +34543,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35437,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1815</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1389" sqref="A1389"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1318" sqref="A1318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23982,7 +23982,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24836,7 +24836,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25730,7 +25730,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26601,7 +26601,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27503,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28366,7 +28366,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29256,7 +29256,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30142,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31021,7 +31021,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31894,7 +31894,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33683,7 +33683,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34543,7 +34543,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35437,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1815</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1318" sqref="A1318"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1568" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1576" sqref="A1576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23982,7 +23982,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24836,7 +24836,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25730,7 +25730,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26601,7 +26601,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27503,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28366,7 +28366,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29256,7 +29256,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30142,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31021,7 +31021,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31894,7 +31894,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33683,7 +33683,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34543,7 +34543,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35437,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1568" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1576" sqref="A1576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A870" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A871" sqref="A871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22569,7 +22569,7 @@
       <c r="D960" s="56"/>
       <c r="E960" s="57"/>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="11" t="s">
         <v>985</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="11" t="s">
         <v>986</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="11" t="s">
         <v>987</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="11" t="s">
         <v>988</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="11" t="s">
         <v>989</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="11" t="s">
         <v>990</v>
       </c>
@@ -22670,8 +22670,20 @@
       <c r="E966" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F966">
+        <f>24*6</f>
+        <v>144</v>
+      </c>
+      <c r="G966">
+        <f>24*144</f>
+        <v>3456</v>
+      </c>
+      <c r="H966">
+        <f>3456/12</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="11" t="s">
         <v>992</v>
       </c>
@@ -22688,7 +22700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="11" t="s">
         <v>993</v>
       </c>
@@ -22705,7 +22717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" s="11" t="s">
         <v>994</v>
       </c>
@@ -22722,7 +22734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" s="11" t="s">
         <v>996</v>
       </c>
@@ -22739,7 +22751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971" s="11" t="s">
         <v>997</v>
       </c>
@@ -22756,7 +22768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972" s="11" t="s">
         <v>999</v>
       </c>
@@ -22773,7 +22785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973" s="11" t="s">
         <v>1000</v>
       </c>
@@ -22790,7 +22802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" s="11" t="s">
         <v>1002</v>
       </c>
@@ -22807,7 +22819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
         <v>1003</v>
       </c>
@@ -22824,7 +22836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" s="11" t="s">
         <v>1005</v>
       </c>
@@ -23068,7 +23080,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23982,7 +23994,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24836,7 +24848,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25730,7 +25742,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26601,7 +26613,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27515,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28366,7 +28378,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29256,7 +29268,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30154,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31021,7 +31033,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31894,7 +31906,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32800,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33683,7 +33695,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34543,7 +34555,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35437,7 +35449,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A870" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A871" sqref="A871"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23080,7 +23080,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23994,7 +23994,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25742,7 +25742,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26613,7 +26613,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27515,7 +27515,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28378,7 +28378,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29268,7 +29268,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30154,7 +30154,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31033,7 +31033,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31906,7 +31906,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32800,7 +32800,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33695,7 +33695,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34555,7 +34555,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35449,7 +35449,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A820" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A848" sqref="A848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23080,7 +23080,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23994,7 +23994,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25742,7 +25742,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26613,7 +26613,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27515,7 +27515,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28378,7 +28378,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29268,7 +29268,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30154,7 +30154,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31033,7 +31033,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31906,7 +31906,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32800,7 +32800,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33695,7 +33695,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34555,7 +34555,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35449,7 +35449,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7191,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A820" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A848" sqref="A848"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1230" sqref="A1230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7211,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9031,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10734,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11639,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15157,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16043,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17834,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18720,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19594,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21336,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22240,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23080,7 +23080,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23994,7 +23994,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25742,7 +25742,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26613,7 +26613,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27515,7 +27515,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28378,7 +28378,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29268,7 +29268,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30154,7 +30154,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31033,7 +31033,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31906,7 +31906,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32800,7 +32800,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33695,7 +33695,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34555,7 +34555,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35449,7 +35449,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45131</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Share/Price list/ATALI-11052023.xlsx
+++ b/Share/Price list/ATALI-11052023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6377,13 +6377,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6708,171 +6714,174 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7191,8 +7200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1230" sqref="A1230"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1065" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1074" sqref="B1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,7 +7220,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8130,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9040,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9873,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10734,7 +10743,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11639,7 +11648,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12534,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13396,7 +13405,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14307,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15157,7 +15166,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16043,7 +16052,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16940,7 +16949,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,7 +17843,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18720,7 +18729,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19594,7 +19603,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="62">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
       <c r="F771" s="80"/>
     </row>
@@ -20484,7 +20493,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21336,7 +21345,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22240,7 +22249,7 @@
       <c r="D938" s="2"/>
       <c r="E938" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="939" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23080,7 +23089,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23994,7 +24003,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24848,7 +24857,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25742,7 +25751,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26613,7 +26622,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27512,7 @@
     </row>
     <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1265" s="1"/>
-      <c r="B1265" s="21"/>
+      <c r="B1265" s="95"/>
       <c r="C1265" s="22"/>
       <c r="D1265" s="1"/>
       <c r="E1265" s="46"/>
@@ -27515,7 +27524,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28378,7 +28387,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29268,7 +29277,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30154,7 +30163,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31033,7 +31042,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31906,7 +31915,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32800,7 +32809,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33695,7 +33704,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34555,7 +34564,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35449,7 +35458,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>45135</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="1762" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36285,7 +36294,7 @@
       <c r="E1815" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="3.937007874015748E-2" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
